--- a/expimp/materialsubgroup.xlsx
+++ b/expimp/materialsubgroup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>90e15142-3c15-4807-a08a-c84a86df6edc</t>
+          <t>b262eb09-ea6f-4c8c-8f86-8c78e16f7b74</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
     </row>
@@ -463,12 +463,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>90e15142-3c15-4807-a08a-c84a86df6edc</t>
+          <t>b262eb09-ea6f-4c8c-8f86-8c78e16f7b74</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1540435f-171a-4160-b395-a6d62e6d02ba</t>
+          <t>20067d25-c91a-4798-9237-e829c34db049</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>d9620ee7-d4e8-42a5-baf9-2837b02de292</t>
+          <t>ad09fb27-2dbb-4af2-b61d-3e19fc815b34</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1540435f-171a-4160-b395-a6d62e6d02ba</t>
+          <t>20067d25-c91a-4798-9237-e829c34db049</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>d8872204-ca59-4579-a9ab-eb5e0f786a34</t>
+          <t>0a1b9854-949d-4f42-bbda-80faac456e86</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1540435f-171a-4160-b395-a6d62e6d02ba</t>
+          <t>20067d25-c91a-4798-9237-e829c34db049</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5f8c0e04-60de-47f7-9246-f5ef5d9296fd</t>
+          <t>c7af3a9b-04eb-437e-ac67-dceb53402693</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>d5cfd6b4-aa24-47d4-a00b-c75ef522688c</t>
+          <t>8d256b7a-fa54-4ae2-8ca1-22855e1454e7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9eaa3764-ae12-4aa2-a10b-15fd53f03365</t>
+          <t>1d3f8a3d-7873-4313-91f6-ae0b3d501354</t>
         </is>
       </c>
     </row>
@@ -548,12 +548,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>d5cfd6b4-aa24-47d4-a00b-c75ef522688c</t>
+          <t>8d256b7a-fa54-4ae2-8ca1-22855e1454e7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3f70bae4-5271-4ca3-b7c0-633d65be583b</t>
+          <t>7cf57d86-5477-4200-8f6b-e587c3f86503</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>d5cfd6b4-aa24-47d4-a00b-c75ef522688c</t>
+          <t>8d256b7a-fa54-4ae2-8ca1-22855e1454e7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>33d4bccf-3d84-4ee1-976f-3a7c5e101901</t>
+          <t>94b07629-77ac-4542-a29e-51a218c35a1e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
     </row>
@@ -599,12 +599,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fb69a975-112f-4ab0-8d6e-718242fd55fc</t>
+          <t>6f887ae6-ab8d-42e5-a3de-6bf5230a8c9b</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7bd05d4a-553e-45bd-8748-a6c60053dc06</t>
+          <t>3e9295f5-98f9-41b6-a931-4ec53ee44c70</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>f16f35e1-1b2a-4cdb-bd4c-1257264c2f9b</t>
+          <t>adda88cb-65f1-4461-a213-4c8c3974778e</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>69e9e63b-76e9-4f3f-af3a-e232d0fa25cb</t>
+          <t>be802321-028d-425f-8743-ca8a954cc0a7</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>f16f35e1-1b2a-4cdb-bd4c-1257264c2f9b</t>
+          <t>adda88cb-65f1-4461-a213-4c8c3974778e</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5979050f-3b64-4978-9d85-8bcb13614734</t>
+          <t>65f57582-b35e-4824-8f29-4b73801fac5b</t>
         </is>
       </c>
     </row>
@@ -650,12 +650,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>f16f35e1-1b2a-4cdb-bd4c-1257264c2f9b</t>
+          <t>adda88cb-65f1-4461-a213-4c8c3974778e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ef721a4a-2d29-4903-8712-afd14d2e441a</t>
+          <t>435b63f3-f609-494b-8e1e-e9e671366ca1</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>eada5fcb-5356-4814-b3b8-3eb243840746</t>
+          <t>bbed7b5c-b666-48ff-8c00-d3fc17b1732d</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6ae7bbe4-8ab1-4545-83db-38e5f84fda4f</t>
+          <t>5e7b70f0-3ddd-48fd-b3c1-e54b0cf2a05e</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>eada5fcb-5356-4814-b3b8-3eb243840746</t>
+          <t>bbed7b5c-b666-48ff-8c00-d3fc17b1732d</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>c77470a0-f75e-49b2-81ab-55facd8b43c3</t>
+          <t>e3f4643c-c316-49f1-b26d-0b66fb28f7bb</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>e3f9a9e7-2ef8-4ecc-813a-3fd96d18d183</t>
+          <t>0bc3849f-603b-4707-87a0-1d986ff20e7e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2e74842a-17c9-4b76-9559-eb653a383c38</t>
+          <t>78cc4149-6f30-4e23-909f-54827f34e8ac</t>
         </is>
       </c>
     </row>
@@ -718,12 +718,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>e3f9a9e7-2ef8-4ecc-813a-3fd96d18d183</t>
+          <t>0bc3849f-603b-4707-87a0-1d986ff20e7e</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6934460c-09ec-4fe8-9061-3d84b9b23c92</t>
+          <t>22938701-db62-44a9-b498-159a3a3d8943</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7608d472-4a64-48fd-bf8c-049b6684f293</t>
+          <t>80a456f1-5a49-4182-ad50-c4424ae20ef5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1d4b50fc-f6ab-4f52-956a-8672c23a5884</t>
+          <t>89c3ae69-e0f1-4b85-891f-b74eff165f34</t>
         </is>
       </c>
     </row>
@@ -752,12 +752,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2f41027f-106c-4db6-aedc-95fe537ed95b</t>
+          <t>c81f53ef-6f4f-48e5-ad72-c5616ae37fc8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>d8deff83-1873-41ae-ac27-fb05d529e53f</t>
+          <t>9078c8d8-0c45-411d-ad5b-579663af9d99</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2f41027f-106c-4db6-aedc-95fe537ed95b</t>
+          <t>c81f53ef-6f4f-48e5-ad72-c5616ae37fc8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2b0be569-af47-4981-a380-524a2c4c0c0f</t>
+          <t>6050bdfb-00e3-452d-ba54-737254c3ec6c</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2f41027f-106c-4db6-aedc-95fe537ed95b</t>
+          <t>c81f53ef-6f4f-48e5-ad72-c5616ae37fc8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4dd31d6e-0330-4314-a14a-a00e183928c8</t>
+          <t>b4d3855b-5708-4559-93e3-3ac00ccfaba1</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2f41027f-106c-4db6-aedc-95fe537ed95b</t>
+          <t>c81f53ef-6f4f-48e5-ad72-c5616ae37fc8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>163721ae-187b-46c7-8e1f-7e842315efff</t>
+          <t>793c4c8f-d790-40eb-861a-d8ec10734725</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a25556af-b04f-4b72-81ad-4373816a27ed</t>
+          <t>c7a5f9f8-0ac1-4d8f-801a-614c299e9fe1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>669f4b03-f402-436b-965d-5ba5bde7bd17</t>
+          <t>321c5aff-0025-4160-9b7f-a1d668df26ce</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5742d2ef-445d-4269-8b80-e79f6416e69c</t>
+          <t>d0c1b155-32e0-426e-9f07-8ea649c764b5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>fc57e211-4721-477b-848b-8a349099ff7c</t>
+          <t>c2e7501e-c43c-43d3-a864-5cda39c9f26e</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>66e3a686-50e6-4226-98a8-5dc91ab341a0</t>
+          <t>ca135aa6-9378-429e-9800-d4997da3154d</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9f5630c6-d5e0-4dbc-98f6-62eb4f1a5821</t>
+          <t>de27ab87-ce12-4010-9ce6-f8fb7f91f006</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>a6f145b7-7a97-4b73-82ae-2fd6421cd5a3</t>
+          <t>f731569b-b613-4bf3-8606-7094f924f918</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2f3b45be-4123-4783-9f0c-1ff5f7661d1e</t>
+          <t>836e6c75-c5df-42b8-b463-2d306fc8a3a8</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a6f145b7-7a97-4b73-82ae-2fd6421cd5a3</t>
+          <t>f731569b-b613-4bf3-8606-7094f924f918</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8e203032-420f-4a88-84b3-27d8e39aebed</t>
+          <t>aaf89384-548f-4b56-92c6-f2c9c07b72a5</t>
         </is>
       </c>
     </row>
@@ -905,12 +905,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>a6f145b7-7a97-4b73-82ae-2fd6421cd5a3</t>
+          <t>f731569b-b613-4bf3-8606-7094f924f918</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7c53baf4-c149-41ac-af79-f866bf2c3a4e</t>
+          <t>7347c037-ca99-47e0-9fed-80a638238dd2</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>a6f145b7-7a97-4b73-82ae-2fd6421cd5a3</t>
+          <t>f731569b-b613-4bf3-8606-7094f924f918</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>e9de333a-0cf8-40fa-93a6-8e1d4275fa79</t>
+          <t>9c8e27e4-63a0-44af-b9c1-e70e12158468</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>a6f145b7-7a97-4b73-82ae-2fd6421cd5a3</t>
+          <t>f731569b-b613-4bf3-8606-7094f924f918</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>f271d489-42ad-45db-9ea7-5280e1207397</t>
+          <t>869bc04c-5df9-4188-a122-ad3cf1f4a2c6</t>
         </is>
       </c>
     </row>
@@ -956,12 +956,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>282f0243-c88a-42d1-a9e2-d4c2d07df06e</t>
+          <t>b8726824-cca6-4398-a485-0bdb2ef28d3e</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
     </row>
@@ -973,12 +973,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>282f0243-c88a-42d1-a9e2-d4c2d07df06e</t>
+          <t>b8726824-cca6-4398-a485-0bdb2ef28d3e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>282f0243-c88a-42d1-a9e2-d4c2d07df06e</t>
+          <t>b8726824-cca6-4398-a485-0bdb2ef28d3e</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>69ec6084-4475-4ae7-9b1a-7d782f5b438e</t>
+          <t>775cb599-1db7-4c41-84f2-0a2fd49ada7f</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>282f0243-c88a-42d1-a9e2-d4c2d07df06e</t>
+          <t>b8726824-cca6-4398-a485-0bdb2ef28d3e</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>44a39919-b197-444d-b871-e40999b50b35</t>
+          <t>c853dbf0-dab6-456a-b8a0-1b3da3a1746d</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>072fb229-7a1d-4860-972a-70d631c9f04c</t>
+          <t>94f50949-329c-4f10-b99d-fb7830b3d22e</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>e1df70c3-6fa8-45cf-827a-5240f85209dc</t>
+          <t>18d99669-e671-4b3d-8e0a-a61387346fa5</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>072fb229-7a1d-4860-972a-70d631c9f04c</t>
+          <t>94f50949-329c-4f10-b99d-fb7830b3d22e</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8fd98d4e-670b-4f29-9330-4481bef3947b</t>
+          <t>3345e8bc-54b3-4eeb-9422-c8e0ebfc75bd</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>072fb229-7a1d-4860-972a-70d631c9f04c</t>
+          <t>94f50949-329c-4f10-b99d-fb7830b3d22e</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>c74a0668-920c-40f8-9a16-c05d682c965d</t>
+          <t>13d31dda-2060-48ae-9523-f7300a0aeff5</t>
         </is>
       </c>
     </row>
@@ -1075,12 +1075,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>072fb229-7a1d-4860-972a-70d631c9f04c</t>
+          <t>94f50949-329c-4f10-b99d-fb7830b3d22e</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bc1ac332-692c-4c7a-8fed-588dd8e215ec</t>
+          <t>32710c91-a912-4f82-b979-35603a729cba</t>
         </is>
       </c>
     </row>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>e31865ed-684b-41ce-b742-a24ff7c49679</t>
+          <t>6987f710-1ab8-4cc1-8f46-d76636376633</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2fbfe77a-96dc-4825-a424-1136af04d0c7</t>
+          <t>3507bdc1-9d42-4477-90b9-765500ba279d</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1109,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7bbe3d2f-3dbd-432b-8feb-4c4a65ddc17d</t>
+          <t>6a686b0e-186b-47b8-a776-ec93e5f5f846</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7efcad51-0745-46b2-865d-7820224e22fc</t>
+          <t>2e132e79-e8de-49ff-833a-c50ff171a44d</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9c4812a6-b93a-439f-b1c7-239c43c037a4</t>
+          <t>df826501-f57d-482d-92fa-c968f72dff90</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>e2f663fc-3fcd-432f-874f-1b0a9c3701a9</t>
+          <t>860076ee-db95-4319-af3b-0c7f1aa5718d</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8bd6468a-72d5-4a1b-bbe8-2efabe42a061</t>
+          <t>a89ccf35-a643-4d02-b79c-c2dac76da61d</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>38a99cc2-3d9f-43ed-8e76-af70e81e743f</t>
+          <t>43bfbb4b-9d63-4581-b0fd-7f50b37c58af</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1160,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>414e2af7-2186-4869-89f3-a32ce77513a6</t>
+          <t>eb0c2cda-4d66-4a4f-b6d1-7a403e9809a2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3b3f1028-9cd8-479f-956d-4cc7d73bdd23</t>
+          <t>0fcbb4c0-596d-4b48-bb87-d8137fd6fe5b</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>414e2af7-2186-4869-89f3-a32ce77513a6</t>
+          <t>eb0c2cda-4d66-4a4f-b6d1-7a403e9809a2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>95046c7d-2fdb-41c7-b0d5-e128786c4c6d</t>
+          <t>53f2e255-8ac7-4cc5-8a96-9d386a886c8c</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>414e2af7-2186-4869-89f3-a32ce77513a6</t>
+          <t>eb0c2cda-4d66-4a4f-b6d1-7a403e9809a2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>e99ce218-fefb-46cc-ba44-c91cbca690fa</t>
+          <t>b7a9945f-5a60-4599-919b-f30476cb99b8</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>30460ddc-3596-4e15-b518-f51252a863e7</t>
+          <t>08a5e9f0-2d38-4c95-ac6d-9019c967a29c</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>44923a76-dec0-42b9-b7f5-567bd87a1b90</t>
+          <t>7f536946-c544-404f-9400-4b37847f8a3f</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>f549c5f1-b8ac-4621-bda3-d143674ab530</t>
+          <t>f483314d-2d72-474b-89c1-47f5d0d93acf</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>b310fae9-8cf0-46c6-a1df-c4a790fc27ae</t>
+          <t>2164f89b-806d-424a-96fd-7fb4703a7d3b</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>f549c5f1-b8ac-4621-bda3-d143674ab530</t>
+          <t>f483314d-2d72-474b-89c1-47f5d0d93acf</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>63aed70d-3598-4e3a-8240-491255da77c8</t>
+          <t>509fdee2-87e8-42b8-bdab-71d2b8e5fff2</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1262,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>685f5562-1bb3-4dd7-892e-9f232dfb3347</t>
+          <t>14aa7d0a-e928-43e0-8264-e66af0987a4d</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>b0548228-bc57-4854-b88c-8512a0238c6b</t>
+          <t>441f1ceb-5eb6-4bbb-9c33-58195bf33ca1</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5a44fc03-0b82-4197-833f-e0ba4f0fe233</t>
+          <t>f19643d6-77de-4915-9564-355d43eccf11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>940f7cc6-6243-4925-8e05-ab5d5cc4922e</t>
+          <t>a96ab5eb-7e2e-4d9e-a272-8e93bf902659</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4cb8340d-bbac-43b6-987b-ba3f08a272f2</t>
+          <t>befd4b73-a71e-41fa-9757-8d1aa438deff</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51f72ac1-c0bd-4e3e-b005-295941bdcef4</t>
+          <t>aad9afaf-0273-440d-b48e-1cbb6e267e3a</t>
         </is>
       </c>
     </row>
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>67ac2dd2-fd9a-4e3a-b087-13e2b00937bd</t>
+          <t>8a9a2159-5147-4241-9da8-323f48100a9f</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>245b9a04-ae4d-44ea-9f83-727d99141c0c</t>
+          <t>d2eb2572-ad2f-41b1-9344-be8b9c342fde</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>f9f85d48-c3c3-4fcd-914d-bad8994e070a</t>
+          <t>fbbff9f7-256a-4e75-be03-9e42e26a8550</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
     </row>
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>f9f85d48-c3c3-4fcd-914d-bad8994e070a</t>
+          <t>fbbff9f7-256a-4e75-be03-9e42e26a8550</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3f7ce195-2c6d-41ee-8876-dd1944bf9fa8</t>
+          <t>2255740a-2a4c-40a7-bfee-b31384e760af</t>
         </is>
       </c>
     </row>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bb4b6e2e-2381-49cc-8167-6729bfda10e2</t>
+          <t>287ca843-7c39-466a-8824-59ee4428b881</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>73c3a5b8-61f7-43f9-9395-ed0e46ca7186</t>
+          <t>15d26884-6053-4bc1-a891-fa830a25e2b6</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>65b73dba-8f65-4ae1-8c0e-91ff74479086</t>
+          <t>55c299da-63a1-4cb7-ba23-c554531d4428</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5daa74a4-05a3-467f-acc9-dcc45b549b89</t>
+          <t>37820c98-e9a1-4b21-9ba6-d28b0c80fdf0</t>
         </is>
       </c>
     </row>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8e9906e7-81d6-4383-b977-15e9be26c2ec</t>
+          <t>1e6c87ef-470a-499d-bfce-237131de53d6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8ec2b1b4-56de-4955-8c2a-a9164b57170e</t>
+          <t>68607572-0220-41de-a0e8-4a4e0439f2ca</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6ec750cf-ec10-4e72-8a4c-b5c7dc625aea</t>
+          <t>e3fb9c00-f712-4214-a969-17fb55160449</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>e8b93aa8-bc6d-478d-9321-c5444c93e191</t>
+          <t>a96b7734-ce9b-46af-9a68-79456eeb068e</t>
         </is>
       </c>
     </row>
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5f7b2d79-4977-4be7-93d7-c46d9c4fd98f</t>
+          <t>56918595-71d8-4d12-b235-6a085aecdb59</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>e7aa8881-168f-4f65-bb87-0ad8a6845a38</t>
+          <t>9cb20663-931d-4cc3-829f-0df552ebfda2</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>b8de3f91-7907-48d0-b436-bd60e693d22a</t>
+          <t>342b2f46-fbe2-4ccc-a287-c7d5f13b19bb</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>56b69d42-3523-460f-99a3-eb0f07920362</t>
+          <t>7d873df6-b274-451d-be16-b7a266bd9ec5</t>
         </is>
       </c>
     </row>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>b8de3f91-7907-48d0-b436-bd60e693d22a</t>
+          <t>342b2f46-fbe2-4ccc-a287-c7d5f13b19bb</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a191e446-59b3-4608-945f-16e436301ae5</t>
+          <t>d1d9e9a8-1232-4f4f-801f-5a1860738d2a</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>faaa58a9-2473-4a3f-b005-58d73be7b59c</t>
+          <t>2a53352e-c24e-44b2-a933-ba3d2074334e</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>70408894-59e3-47ee-a334-0642af7f6911</t>
+          <t>610782a8-7c16-40a7-86fb-552e36e98f96</t>
         </is>
       </c>
     </row>
@@ -1500,12 +1500,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>faaa58a9-2473-4a3f-b005-58d73be7b59c</t>
+          <t>2a53352e-c24e-44b2-a933-ba3d2074334e</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>19eb7c1f-3986-476b-bf44-b5a2100a8bb7</t>
+          <t>6b9f3431-9a9e-4e1c-88ff-2a9fb26987c5</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1517,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7c9cdc8c-397c-46fa-99b6-dbb387cd331a</t>
+          <t>9e8232b8-e482-4b38-ad66-54841b3b2d37</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1d4112ca-0338-4be7-bcac-f0024c2a40be</t>
+          <t>4ada2532-b775-4356-aedc-fb44a907d5a1</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3740cdbd-c881-4e9a-b90a-88e647eb4b15</t>
+          <t>2ec9148b-71e7-492b-a6da-75eb9fb39371</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>786156b5-af1b-46ac-9726-73b5d3cbacd8</t>
+          <t>0529c78f-9423-4261-b477-c6d80201aede</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>c2a1add6-1b0f-469d-b774-ce33fac47c20</t>
+          <t>2ab7f5de-0a6f-43dd-a2d5-f1fcef7a3a49</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01ae3d20-448d-4118-b512-01387b0880f8</t>
+          <t>081865f2-5758-4a63-8fd4-f196e64fa1d5</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4b7e2122-0bd8-4033-bf36-9befddf40274</t>
+          <t>7281e27d-56ae-4763-8759-9933d3d382b1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0e7d18ed-4a66-4db4-a681-d011719c239a</t>
+          <t>8d090e87-9fd7-4ab0-9697-6142136fc4da</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4b7e2122-0bd8-4033-bf36-9befddf40274</t>
+          <t>7281e27d-56ae-4763-8759-9933d3d382b1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>d141a73f-cd93-4a93-801e-33b51dc8600f</t>
+          <t>766e6076-dd3a-4014-846b-163e2c16dcfe</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>da78d44d-6e68-434e-9edd-ece5ff86c48a</t>
+          <t>1090d0c2-4584-42ee-813f-88aa5bffb4a1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>36069673-4dab-4aa2-bdf9-ea6e7da34793</t>
+          <t>0104652a-87f7-4cea-b0e7-ddec84ac62e6</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38c1b412-48c6-4351-89a0-a6b7e91e9b9e</t>
+          <t>180efef8-8ca3-47a7-871a-c282ac263483</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>edeee92f-039c-4832-b87f-ea68778976cc</t>
+          <t>6b0d5fd6-a536-426d-a9fb-b8d02e0710b3</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ae6cb9ef-4ec3-49cc-bb04-cfd41faa6400</t>
+          <t>25df4a7f-50a7-44f5-bdb2-e98f0c1adfeb</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>03178945-3d79-45b4-9294-1d30fd867e5a</t>
+          <t>4f819f6a-fd64-4b2b-aacd-8ad85c11cbed</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2fc34ba5-9df5-451f-89ca-ac7ac66a225f</t>
+          <t>e555c44c-e319-42ce-8d79-aae49cb9ad68</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5ff3ca4f-e40d-4c7f-8a9c-236ca9b03f7c</t>
+          <t>d319d260-23f0-4534-8866-101fcaa60116</t>
         </is>
       </c>
     </row>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>a46e6f35-fe72-4294-a82f-72232ed38102</t>
+          <t>ce45139c-5365-4993-85f4-7fdbad0609c1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>06c7e4b9-5bb8-4fcf-bc16-9d13042e3aba</t>
+          <t>24986752-17fc-48ff-84f5-6b33c5fc5a80</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>787248ef-825f-4335-944f-73f30c8dac16</t>
+          <t>b082ec8d-4598-4943-a1ba-2e3e6d49b7a1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>471204d7-54df-4318-8d50-b0856f03b8eb</t>
+          <t>fe232e43-4ba9-42a2-a337-83c39ab66bbd</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>787248ef-825f-4335-944f-73f30c8dac16</t>
+          <t>b082ec8d-4598-4943-a1ba-2e3e6d49b7a1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>7fc94c72-4200-4ece-adea-3d41e7664f6b</t>
+          <t>c69eee6b-4d2d-421a-bbc4-dda6d5c552bf</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>787248ef-825f-4335-944f-73f30c8dac16</t>
+          <t>b082ec8d-4598-4943-a1ba-2e3e6d49b7a1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>34877966-81a8-441f-9a2f-6c4268f1ff0a</t>
+          <t>f95a5617-9598-4ffa-80c9-e63a27906aa4</t>
         </is>
       </c>
     </row>
@@ -1738,12 +1738,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>29f2127c-6664-41a0-a27c-5b828e77baec</t>
+          <t>b58e9811-a2bd-41c4-8100-08f677cc04da</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1ba62146-5f0c-4d35-aba6-888c06deb8ce</t>
+          <t>74417b47-a306-4022-85f0-501d2c3b4c1b</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1755,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10a812dd-d0eb-42ea-b3ef-06914b0876e8</t>
+          <t>07758aeb-bc86-471a-9112-fe46a889c627</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>dc43a8e4-fd83-447b-9dc8-baba8686af06</t>
+          <t>7f9f634e-1b02-4c59-9d5e-1fc71bbcc162</t>
         </is>
       </c>
     </row>
@@ -1772,12 +1772,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10a812dd-d0eb-42ea-b3ef-06914b0876e8</t>
+          <t>07758aeb-bc86-471a-9112-fe46a889c627</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>f74ff94d-da44-4cc0-b26f-2bddea3fde2f</t>
+          <t>e0540a36-29ba-4d4d-a72e-c1f19d5a91c3</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1789,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>f496b90c-48db-4222-bac0-e4fb05bd55b5</t>
+          <t>50149cff-c0d2-4396-a0a9-a5777060cefa</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>cc725a87-719d-4bf5-872c-d2f6ca5b1892</t>
+          <t>71e08107-77f7-490a-aed2-a386f025b9e2</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>f496b90c-48db-4222-bac0-e4fb05bd55b5</t>
+          <t>50149cff-c0d2-4396-a0a9-a5777060cefa</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>46a80589-2179-4d91-8f96-32335b2c545e</t>
+          <t>5a6b2c9b-764a-4dd4-b3aa-a527a92a80a4</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>13c77cf1-fc3a-4b02-b3c4-7fb7f9d00936</t>
+          <t>6c5697e2-02f4-44b2-8ce3-33eba73520ee</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>f308fab3-77d2-4339-af06-e10ff021e627</t>
+          <t>20100c8e-557c-4588-9672-27372823f50f</t>
         </is>
       </c>
     </row>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>82624518-660c-4396-9216-e888e047fe29</t>
+          <t>ebcdc2f7-5884-414b-900f-a92c978d7dfc</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1023cbb9-b37c-45bf-ba7f-f534115df68d</t>
+          <t>80bdfc60-c119-4a2e-848e-b3656ea32656</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>82624518-660c-4396-9216-e888e047fe29</t>
+          <t>ebcdc2f7-5884-414b-900f-a92c978d7dfc</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>067572f2-33f2-4d7b-9860-66c91d9a516f</t>
+          <t>d4677263-2d88-4ed3-949b-8b2cd36374f4</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0591dd7a-4ef1-4be3-b91f-c1e0f566ee59</t>
+          <t>6736220f-fdbc-4707-b71f-0f90bc089674</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9238fe43-df41-4f85-a71a-18ccbf581fe8</t>
+          <t>196bdd55-6d5e-40bc-8897-e91f65e290ac</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0591dd7a-4ef1-4be3-b91f-c1e0f566ee59</t>
+          <t>6736220f-fdbc-4707-b71f-0f90bc089674</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>98390e1d-7910-43c4-8fbf-eff92d878774</t>
+          <t>20fc02a3-3420-401b-82bb-78912ffc174e</t>
         </is>
       </c>
     </row>
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>f1bddac1-e0b3-4382-b8c4-91820aec43ce</t>
+          <t>efbd423b-fc92-47af-b2a2-b64617dfc869</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>a0be9c13-3f4a-4223-9d3b-84a3d70d6366</t>
+          <t>4262fbd3-fa48-4671-b34a-57b5cbc2e289</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>f1bddac1-e0b3-4382-b8c4-91820aec43ce</t>
+          <t>efbd423b-fc92-47af-b2a2-b64617dfc869</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>b30b0052-c6ed-43cc-a55b-003dc11f539e</t>
+          <t>d181af58-55f2-4c04-a437-b7038949ae4a</t>
         </is>
       </c>
     </row>
@@ -1942,12 +1942,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>6c3c91c7-d3f1-4456-b817-f9b3aeddad1d</t>
+          <t>781e29b3-ae42-4905-bdd6-411201d845c9</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9667045b-d408-4091-9d3a-e8e763031df6</t>
+          <t>e4fa548e-d28d-425b-a167-e3967a7101dc</t>
         </is>
       </c>
     </row>
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>f0b3a12f-86ac-47f7-87d1-9b1b3cf7436f</t>
+          <t>c147438b-3361-4b93-b09d-22ce505029ba</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>e10fcdc5-5df1-4b8b-9353-91aeee4417de</t>
+          <t>e1885977-2733-42ad-800c-108d50b6b456</t>
         </is>
       </c>
     </row>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>c5a0ab51-d65b-4dcd-8725-a4caab8b727a</t>
+          <t>077feaea-13ec-47ff-a98d-3797f7622e84</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>50cb835c-3171-4ca3-81a3-0f226279b421</t>
+          <t>360db739-4874-4083-b429-1cb4ebb21df5</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2e0cfeb5-2c4a-4069-92d8-e3407468e998</t>
+          <t>61145999-ec4f-44d4-a1a0-284e2984e959</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>199cffb5-155e-4c64-8bba-c63cf0fc367a</t>
+          <t>23f9d8c6-4e26-4da1-ad5a-a46d342c2b29</t>
         </is>
       </c>
     </row>
@@ -2010,12 +2010,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>127da54a-0d60-474b-9261-34c4a4ff1160</t>
+          <t>55b2a556-bab3-4114-b75e-296161ef6871</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>6561d474-a20f-45c0-b309-cfef6acd1c49</t>
+          <t>cc33134c-b053-487c-9ce5-91ebb09f7cfd</t>
         </is>
       </c>
     </row>
@@ -2027,12 +2027,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>127da54a-0d60-474b-9261-34c4a4ff1160</t>
+          <t>55b2a556-bab3-4114-b75e-296161ef6871</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3d3ea6a8-27c6-4500-afbf-96c19ec57a9d</t>
+          <t>68f79753-8dcd-4f9f-8c2a-52887dc25408</t>
         </is>
       </c>
     </row>
@@ -2044,12 +2044,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>127da54a-0d60-474b-9261-34c4a4ff1160</t>
+          <t>55b2a556-bab3-4114-b75e-296161ef6871</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>386fc9d9-c912-4bc8-9923-6784c42af415</t>
+          <t>1248d678-185b-4e2c-afe3-41d05d1539e1</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>127da54a-0d60-474b-9261-34c4a4ff1160</t>
+          <t>55b2a556-bab3-4114-b75e-296161ef6871</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>b33a7e16-d534-4a63-9953-3213ffc33033</t>
+          <t>6a5f09ba-cc8d-45f0-91d2-66ef737927a8</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>127da54a-0d60-474b-9261-34c4a4ff1160</t>
+          <t>55b2a556-bab3-4114-b75e-296161ef6871</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>8934b591-e1ab-4f7b-b379-951c6f4cffaa</t>
+          <t>fd794fd8-ef31-4a4d-a0c5-c4875db1ab9a</t>
         </is>
       </c>
     </row>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>127da54a-0d60-474b-9261-34c4a4ff1160</t>
+          <t>55b2a556-bab3-4114-b75e-296161ef6871</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>02be2580-cbc9-4222-b3d5-c2af14262ef1</t>
+          <t>a83e7afb-448e-4c1c-9937-d580d7ac955e</t>
         </is>
       </c>
     </row>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>e1ada6bf-e171-4200-ae9b-14915a5172fb</t>
+          <t>9b1b2fa0-e530-459b-bf7b-29dad6b86ae8</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2b5cd82b-3822-44ae-9736-e0c3946fb602</t>
+          <t>52c3b989-110a-4bbd-909e-c25c734c9ac6</t>
         </is>
       </c>
     </row>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>e1ada6bf-e171-4200-ae9b-14915a5172fb</t>
+          <t>9b1b2fa0-e530-459b-bf7b-29dad6b86ae8</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>62152c90-50c7-47f1-9f8d-031c218ecf17</t>
+          <t>b8e4ab2a-26b9-4b04-97e8-357653d236ee</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>e1ada6bf-e171-4200-ae9b-14915a5172fb</t>
+          <t>9b1b2fa0-e530-459b-bf7b-29dad6b86ae8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>16479ec8-783b-4b00-b20a-dcd8f24f8e9b</t>
+          <t>9752fc89-8df9-4ba4-ac75-22e8086c8cb0</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1c8d1d11-2720-4258-8eb0-bdae1ef28739</t>
+          <t>4610db9f-240f-45b9-8779-ee2d22b69d93</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5bb08e0b-13a6-4856-a52e-860af2a35189</t>
+          <t>2f404ac6-45bb-475f-8af8-be5bce423300</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2f252cda-f02f-4cb0-822e-c38e3edf6fde</t>
+          <t>b96bcc12-f857-4e6b-9ceb-f4757e849691</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>63be2fa8-9a04-49de-afbe-c1fe2addc44f</t>
+          <t>32c5639f-5f97-4ff4-8eb7-462844d0258c</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>eecdbbb5-9c44-457c-aec6-4a7240a1b769</t>
+          <t>75bddf0b-7141-4aa5-ac13-080f7573c869</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>13bd6cda-7f8b-49ec-a970-6e7e2daaabd3</t>
+          <t>a8b2061a-6594-4626-8124-c27c89b6a9f5</t>
         </is>
       </c>
     </row>
@@ -2214,12 +2214,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>eecdbbb5-9c44-457c-aec6-4a7240a1b769</t>
+          <t>75bddf0b-7141-4aa5-ac13-080f7573c869</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>e0056bf9-1f4d-468f-8fbd-bba8ff30a774</t>
+          <t>017a09bf-897e-414a-a736-4490338a2351</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>eecdbbb5-9c44-457c-aec6-4a7240a1b769</t>
+          <t>75bddf0b-7141-4aa5-ac13-080f7573c869</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>e7acc019-e92c-44e4-8e45-f76a91152b04</t>
+          <t>db8cd7c3-9053-4a0d-9473-4c65df3bb4e2</t>
         </is>
       </c>
     </row>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>eecdbbb5-9c44-457c-aec6-4a7240a1b769</t>
+          <t>75bddf0b-7141-4aa5-ac13-080f7573c869</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>eeeacfd6-c779-45ac-936a-f61e144be0ea</t>
+          <t>92ce2cff-fff8-42d4-9565-c486149dcc1e</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>c6582eb2-a985-43c7-aa5c-2179bc3f1a42</t>
+          <t>2fb0d038-ceae-4d2f-a105-e1034f002c87</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>776f6d25-c0a0-4bb4-883c-56e1c489c850</t>
+          <t>91db1ac4-a2da-48c3-b1f0-58c7cd9840fd</t>
         </is>
       </c>
     </row>
@@ -2282,12 +2282,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>c4dafafe-e478-4de5-a9f4-2441f8848fc4</t>
+          <t>1ea21cc2-46f6-4bcc-87e0-a0bdb12fe299</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>8357d87f-7a63-494e-af9c-732613dccfb1</t>
+          <t>742b493f-f32c-4bb0-be1c-f428e8a30041</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>c4dafafe-e478-4de5-a9f4-2441f8848fc4</t>
+          <t>1ea21cc2-46f6-4bcc-87e0-a0bdb12fe299</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>d38446a8-7dcc-4751-a83f-bbc53d159fe3</t>
+          <t>a14baf5e-e952-4bc9-991a-02b898855627</t>
         </is>
       </c>
     </row>
@@ -2316,12 +2316,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>af755886-9622-49de-8ca1-ba96e00f35ae</t>
+          <t>d586ec73-fa9c-4458-99e4-96ad0d2f89b6</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>b1cede57-84ab-4c58-acca-e38c4670e664</t>
+          <t>e2e15bbb-0ae8-4994-bfff-f37679d7fdeb</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>c1b3c811-26be-4709-84c1-55d91b86e293</t>
+          <t>52e5c773-4307-47ce-b51a-32b09964f479</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1290a239-72a9-4e2c-ba81-72c383554bd2</t>
+          <t>033e98a4-6ca7-4677-bb50-4a5c7f74701e</t>
         </is>
       </c>
     </row>
@@ -2350,12 +2350,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>c1b3c811-26be-4709-84c1-55d91b86e293</t>
+          <t>52e5c773-4307-47ce-b51a-32b09964f479</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>7348ece5-e436-47ec-97a8-31b6c887f9fa</t>
+          <t>37dc20d7-bd14-4917-af3a-8c0f70e99d94</t>
         </is>
       </c>
     </row>
@@ -2367,12 +2367,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ae1d5c35-e082-4f15-8f6d-5173d7d48fe6</t>
+          <t>3c1b45c9-09bf-4ade-b852-323ca91856e5</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>029cffd0-d91f-44c9-8e57-3cdc61c39795</t>
+          <t>0147ee26-7ded-4bd4-8b17-71db9a9c109d</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>abd35767-3f4b-44c2-9ecc-92c70a04fd05</t>
+          <t>6c3b2cdc-b814-4be5-ad89-a286faf0eeca</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>48fc9c16-6bf6-4386-a8b7-f47ff3c00178</t>
+          <t>98434ca2-b9d3-445b-bbd1-8cb0ecee3452</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3d34442d-7042-4292-aa67-b0d2154161cf</t>
+          <t>e096a36b-168f-453b-8f47-807e2cc400c6</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9f1a6f1f-7670-4da4-8f04-1c13b4ae6fdf</t>
+          <t>52f6e892-09aa-456e-9ed8-92eab4eb3be4</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3cf65dcd-1d27-4323-b272-5e3c977b7316</t>
+          <t>7d99359f-01cf-419e-893e-4b0f31e59a61</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>c42d2994-eef0-4861-a3d4-ecfd0c1de12b</t>
+          <t>8d1cc72a-d87e-46d1-9bd5-2fe5a00318a4</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3cf65dcd-1d27-4323-b272-5e3c977b7316</t>
+          <t>7d99359f-01cf-419e-893e-4b0f31e59a61</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ff84b8dd-e52a-4ef9-acf4-f505ccf32e83</t>
+          <t>e09d9d51-b0dc-4cd0-ac3c-da6523508f25</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2452,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4ecb0714-927b-44f8-842e-394863bba6ad</t>
+          <t>de76d303-931d-4587-bcf7-1f47a9179208</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2469,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>67fb4760-7ca1-4c65-9a09-9ad1ba30b8a9</t>
+          <t>8856f7e9-5a55-4ad4-98e4-02b3c0bb8aee</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4028a303-a7be-4dd8-8774-c49193309177</t>
+          <t>c4cc3273-de13-4846-b593-aa436ab8cd27</t>
         </is>
       </c>
     </row>
@@ -2503,12 +2503,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>d84f5f08-d871-4735-9b67-6d29192099ea</t>
+          <t>24e915ba-2db5-42ea-acfd-d0ca7e29710b</t>
         </is>
       </c>
     </row>
@@ -2520,12 +2520,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>a79b9bf3-0ab0-4a58-a28d-6fd0a20f199e</t>
+          <t>aa329eb3-c800-4160-b7f0-6b4bd851eed5</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0eacefab-f0e1-45ce-af02-eae0d8c640b8</t>
+          <t>be1a20ef-c493-4791-8111-c7f210b331e5</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5bd229e3-4c99-450c-9823-580701cc10ec</t>
+          <t>1587bcff-2f88-4c73-aa60-55e9b48b25d8</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>521fcbec-5fbc-48ba-aeee-d94264279edd</t>
+          <t>540171c9-0c75-4c45-99dc-c95ba5a3d6e8</t>
         </is>
       </c>
     </row>
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7d063ea9-90f5-4b9d-8686-0ea8c5ea4fe8</t>
+          <t>670ed21e-099c-49f0-a6dc-3b4bb1ca66d9</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>d30e9d95-5439-4c09-91ab-719f65665fc6</t>
+          <t>219e6ecd-1e6e-4777-95ed-0f7629db6981</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>bd2c0390-eeff-40f1-8152-3d2be3ead292</t>
+          <t>34fbcebc-5d9b-4eca-8e2d-7ae421b91c21</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>69d70d7f-8d71-4c53-98f8-bf8dbc589d65</t>
+          <t>f30f785f-5ead-40f3-b4e3-4a35c49652d5</t>
         </is>
       </c>
     </row>
@@ -2622,12 +2622,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>bf373cb7-9871-4461-bc1d-b088c34a73d7</t>
+          <t>82098228-ce11-42d2-bbb2-63df770f5f43</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>bf373cb7-9871-4461-bc1d-b088c34a73d7</t>
+          <t>82098228-ce11-42d2-bbb2-63df770f5f43</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>e0059639-7f3b-40eb-acf1-5876c990a039</t>
+          <t>f4d3a078-34c8-4145-9d1f-3334abe13d1a</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>319c8ec1-5827-4bd3-a886-3b300c0dec98</t>
+          <t>a6d5025f-80e0-4a79-a042-3079dc333777</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>e99393c1-63cc-4c4d-8daa-4a97cf964fc1</t>
+          <t>4778cc26-f053-48db-961b-40748a13f274</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>319c8ec1-5827-4bd3-a886-3b300c0dec98</t>
+          <t>a6d5025f-80e0-4a79-a042-3079dc333777</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>cac48de8-613e-49ea-b6b0-3b6aa292ed06</t>
+          <t>43c9a654-aa0c-42b4-a16b-eec005a57890</t>
         </is>
       </c>
     </row>
@@ -2690,12 +2690,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>319c8ec1-5827-4bd3-a886-3b300c0dec98</t>
+          <t>a6d5025f-80e0-4a79-a042-3079dc333777</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>5a91bc42-1a77-4465-8b45-553339e28c19</t>
+          <t>8fd354b5-7a69-4a04-8ff0-bbf88d66f579</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>319c8ec1-5827-4bd3-a886-3b300c0dec98</t>
+          <t>a6d5025f-80e0-4a79-a042-3079dc333777</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3c13d2ef-9066-4b3f-8243-fe52e34e02f3</t>
+          <t>dfd65b31-23c8-4397-9773-213c54639ee9</t>
         </is>
       </c>
     </row>
@@ -2724,12 +2724,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>319c8ec1-5827-4bd3-a886-3b300c0dec98</t>
+          <t>a6d5025f-80e0-4a79-a042-3079dc333777</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>00cb51c3-a926-4152-9e76-f69e064dbef4</t>
+          <t>68477ea2-8b06-4029-a4ba-8f83929f3e56</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>b34a5b0a-0867-43ee-a47b-7d945dc180d1</t>
+          <t>0201f446-0ee4-4034-9651-d03daf2c5475</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>bb036496-6b16-46c3-a2ce-a34b636d4d3d</t>
+          <t>82762155-9af6-40fe-a11a-7518c8206455</t>
         </is>
       </c>
     </row>
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>96b67e09-b307-41f2-ad79-922b58464bcd</t>
+          <t>a7eed0ec-c554-4b7d-962b-3caf92e432d8</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>bca647d4-3ca9-499a-8edc-266a91347d47</t>
+          <t>72c911fd-4f46-4a2c-b5a0-a6c97ae764fc</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3d358d5a-4a0b-470e-9da1-45346280e04c</t>
+          <t>ce42c323-2679-4811-bc07-092fbabd1a01</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>8cbb535e-9bab-4cbc-be7a-3841b5a535f8</t>
+          <t>c02d9699-5a27-4d62-8120-8d3d8f0bf4b5</t>
         </is>
       </c>
     </row>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>9775f8cd-1d5f-4604-ac94-e62be9e2f086</t>
+          <t>d946f5e3-7bc6-40d1-959a-5646e19d1903</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>af8e6c62-8a79-454c-9751-1a9f10b7acd8</t>
+          <t>63f90c13-24f4-4a5d-82e3-3946fc16ebfa</t>
         </is>
       </c>
     </row>
@@ -2809,12 +2809,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>d175fc58-b0bf-47ad-bb63-b40e7609faf3</t>
+          <t>25dc90c8-90e3-4625-a837-bdefd23c1912</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>346d4a9c-d8ab-4dec-b5be-4a43c24f4703</t>
+          <t>565c2e7f-c654-4437-9876-04feb7171fc5</t>
         </is>
       </c>
     </row>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0168598c-adb8-428a-9adb-52ac54e75232</t>
+          <t>423d5a31-99da-4055-a29a-6d17ec410821</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>c41cda13-e790-4cdf-ab6d-5bf7e988dc3e</t>
+          <t>31861f80-68da-422d-81bc-b2edd670c7a4</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2843,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>a27041b4-3c66-48f8-89b0-2b2bd63dad5d</t>
+          <t>f5f0360c-5a8e-4d6e-baf7-034446864021</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
     </row>
@@ -2860,12 +2860,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>f02d6093-88f3-4684-9f1b-89a69021969e</t>
+          <t>55681129-fb9c-42b7-a8db-3ef18e98c114</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>a0bf46c9-c1fd-4e79-af8b-df4a74a79851</t>
+          <t>256cab7f-0912-4572-ad0b-8c2e60843d35</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6f5a8194-6784-4a03-8527-af803fc7ba91</t>
+          <t>d86f81ed-4e15-43b8-b3d0-8e20c48aeb3b</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0088ea8e-374c-472b-9cad-1477b0e348fd</t>
+          <t>8a4f4a3a-cedf-4cc6-875f-42ef72288089</t>
         </is>
       </c>
     </row>
@@ -2894,12 +2894,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>31225bea-f605-40aa-8270-2c9fd401d8b1</t>
+          <t>81502df1-0ff5-4b2f-880c-a052554ac3a3</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8dbf3053-33b2-47c5-b2e4-9a8ee5ca17fe</t>
+          <t>05ae3660-5652-411c-b416-823f98d26e5d</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dc6dd04b-bff0-4186-89d6-90e726239502</t>
+          <t>4d4dbb16-5033-4379-a992-ffd9d7f08bb7</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>50fe2be2-625b-4476-b06a-52887d073ec2</t>
+          <t>902774c1-efe7-4a55-917d-d7f603eef9a1</t>
         </is>
       </c>
     </row>
@@ -2928,12 +2928,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>e5786807-651d-439f-90b3-ac0d8c30c812</t>
+          <t>6b25568d-b78e-4b40-9fb1-02392b28d0b6</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3ce644fd-e86d-48df-a3d8-a442311eed47</t>
+          <t>4b66b16b-daf5-4e57-9521-df93540f02bf</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1e03567d-fd0e-425c-91cd-95352662ca74</t>
+          <t>b460ba7d-1008-4dc7-9bd3-8f8d121bbc2a</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>978dcf60-b88e-4487-96fb-5fabbf0304fc</t>
+          <t>96ed4947-d5a2-4c05-b5e2-a527a15c23c3</t>
         </is>
       </c>
     </row>
@@ -2962,12 +2962,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2e4400b9-38d3-4475-9709-36b861550b91</t>
+          <t>9aef1e73-806e-46da-8598-13537736df2f</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>99c7d707-9936-477e-b783-ecbd0fe40d6d</t>
+          <t>2fe35a77-2727-4db5-bd55-56442e4abce5</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>486522d6-1cd7-4d5f-aeba-47fc3ec9eb4f</t>
+          <t>316ee1bd-2c10-449b-800c-6b4c0b6d6e3f</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>713fa309-68aa-4eb3-b2f1-262288e8e2a4</t>
+          <t>52f0af58-d3a8-45cf-bcc7-5f72e83697f8</t>
         </is>
       </c>
     </row>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>83e4e41a-5132-4119-b454-e4bfec298d03</t>
+          <t>ced32403-d21c-437f-b5e5-ebaeae0b0a3d</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
     </row>
@@ -3013,12 +3013,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>062a61f6-0e22-4e66-b424-0672b89613f3</t>
+          <t>3a43dc33-6460-4560-b10b-752a04999bf5</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>b163339b-678d-468b-9dbc-7f2b2b3e1fb8</t>
+          <t>aee2f1f7-de85-4c50-8ec4-b58ca54235b6</t>
         </is>
       </c>
     </row>
@@ -3030,12 +3030,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>5fb5fb6d-e80c-4e17-9de4-ecce1740da66</t>
+          <t>ecb97076-c9be-4b4e-b742-1351e05033da</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>d62810ab-2a59-4635-a0f7-8d17c322cf49</t>
+          <t>0704fdd2-f111-45d7-a78c-e245f6e99667</t>
         </is>
       </c>
     </row>
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>5fb5fb6d-e80c-4e17-9de4-ecce1740da66</t>
+          <t>ecb97076-c9be-4b4e-b742-1351e05033da</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>9e66da1c-fe74-4aaa-9fbf-5d439ef01660</t>
+          <t>f8ce2bbc-efde-4868-8acc-352cbb137634</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>9f70ec64-3bf7-4859-b194-2d020dfa0d50</t>
+          <t>a69a7d75-71eb-400a-b452-fee38957aa71</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>d19a069a-0d71-4e39-9d42-0135054193ab</t>
+          <t>a1a14f99-608c-42f3-8a40-654b4f07a8f9</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>9f70ec64-3bf7-4859-b194-2d020dfa0d50</t>
+          <t>a69a7d75-71eb-400a-b452-fee38957aa71</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>f5fc232d-89fa-4cb6-be76-a1037662cf74</t>
+          <t>54f05875-9e74-4683-ad4f-9da4b4ab0f02</t>
         </is>
       </c>
     </row>
@@ -3098,12 +3098,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>e61609b7-75fe-4af8-8065-128403b6c72d</t>
+          <t>629fae37-0fe9-41f0-9cfb-203fc090d3fe</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>bb2070c4-df42-4d38-b7b5-f425aaaa27db</t>
+          <t>3829e1f3-5794-4ec2-b4c4-952ee2d59ce2</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>e61609b7-75fe-4af8-8065-128403b6c72d</t>
+          <t>629fae37-0fe9-41f0-9cfb-203fc090d3fe</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ec8dc6c8-7783-413f-b6a6-e0d9ff5f27bb</t>
+          <t>98718474-88e8-4f84-a92e-b7502c04ccac</t>
         </is>
       </c>
     </row>
@@ -3132,12 +3132,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>68c175d7-d5f4-43af-aef3-01e62bb376cd</t>
+          <t>944ea43f-1e52-4907-b846-e833b3f19c83</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>b29547f1-c737-4d7f-8026-f354a2a9f293</t>
+          <t>905d2155-2250-4f60-923b-fbd522fe9b76</t>
         </is>
       </c>
     </row>
@@ -3149,12 +3149,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>68c175d7-d5f4-43af-aef3-01e62bb376cd</t>
+          <t>944ea43f-1e52-4907-b846-e833b3f19c83</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>bdd951e7-c55a-4a79-b6b3-8e84256dae71</t>
+          <t>c7a46d86-2280-494b-acd4-dca35a8eacab</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1040b0b0-5c16-47b2-9677-9012b91aaed3</t>
+          <t>e70c5020-9202-4ea7-b6dd-82da89b83270</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1e3703d1-6186-481a-a1be-3077c0e9d007</t>
+          <t>51458316-a3f1-49fb-b3a3-e42a3418d2d0</t>
         </is>
       </c>
     </row>
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1040b0b0-5c16-47b2-9677-9012b91aaed3</t>
+          <t>e70c5020-9202-4ea7-b6dd-82da89b83270</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>b95fc984-c22d-4421-afcc-efeffc08fba7</t>
+          <t>f66cb5ef-f5ae-4676-981b-3e50e8b2faf7</t>
         </is>
       </c>
     </row>
@@ -3200,12 +3200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>262ceb07-1979-40a7-a867-44d36f81df8f</t>
+          <t>d9e711c4-5ff2-43d9-9a8d-ae686ea1c2dd</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>dc86936a-9d52-4232-9a78-b532c641c959</t>
+          <t>f5892319-2d59-4c2c-8f8c-206e1af01977</t>
         </is>
       </c>
     </row>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>d691d1c1-713b-4c76-9cf4-f90d645df6ed</t>
+          <t>938402e1-a23e-4c89-9295-df4a12b4c40f</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>a23bfce5-9b47-4e36-9527-decb0c65c797</t>
+          <t>2d0cf7c3-45ee-4a44-a5c9-1ab4f9cf0d81</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2f1dbcfc-1d93-4257-8985-171e3117c6fc</t>
+          <t>3fe66284-1215-4486-9038-ea434fa0cc49</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>d73c96bb-b301-48b5-81f2-e8404e02f9e5</t>
+          <t>fed49760-751d-48ab-a921-6d75ac84cb6f</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>088414b6-a276-479b-aa24-938ebe2db911</t>
+          <t>684c83b1-bb24-4292-bb31-7f008d547417</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>900644e9-3b8c-490b-9566-cf730ed7c8c9</t>
+          <t>2c8b00c0-d0bd-4cbb-957a-af6a451d0e2c</t>
         </is>
       </c>
     </row>
@@ -3268,12 +3268,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>088414b6-a276-479b-aa24-938ebe2db911</t>
+          <t>684c83b1-bb24-4292-bb31-7f008d547417</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>f25c2aec-c8bd-4d7d-a507-1d9fdee1c3ae</t>
+          <t>e669b6ba-d9b6-4774-9e05-1f44f5ddde57</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>eb1fd382-fbb0-4b52-86c5-409626cdbbbd</t>
+          <t>30338dac-4c64-45ab-b5e4-f8bcf6b916d6</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>dad159fe-0dd9-4912-b93d-8741986de69f</t>
+          <t>5e246587-9aa5-4d42-ac83-eec8ec44cbdf</t>
         </is>
       </c>
     </row>
@@ -3302,12 +3302,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>618d618e-d073-48d8-95d2-14eb86f16425</t>
+          <t>ce6f3d60-5201-441d-9723-3ed5e90cdf34</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8f20f7a1-2a31-443b-a0d7-0fddce2c0e40</t>
+          <t>fc4413f9-12e3-4ce1-b25c-89f3ad437123</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>f340665f-07b7-4a6a-9ee8-9d02371ff749</t>
+          <t>16c2716a-79c9-4219-8bb3-9f75377d002a</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>637454f5-e882-42c2-8e65-971aea6ffcab</t>
+          <t>e219c9be-f2a3-4343-a466-16441aa3e68b</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>4905c201-6a8c-4fb7-942c-4d1a6c9cbe2a</t>
+          <t>d562cb55-c262-4986-ba0b-d7ec6c35b62e</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>25e263db-e18b-4608-96dd-f67dacc30f1b</t>
+          <t>90a0951c-84a8-49b2-a7f3-fd53d9d8dc37</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3353,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>6f9945b2-c83b-4f2e-9970-843a34a1eda4</t>
+          <t>182cf31b-7d1d-43a7-a335-90a88f765ca5</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4b1b3cf9-2b89-41f3-8b84-a7849f5a994f</t>
+          <t>83986559-2872-4767-ad48-7c8612e268c1</t>
         </is>
       </c>
     </row>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>d7c87e83-b057-478d-aed1-5788c75482be</t>
+          <t>333d5b40-b229-4d34-b23d-d47d242652cf</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>9583074d-5d54-40c0-9f2d-dbc2dcb15960</t>
+          <t>7acc4d91-0f39-46a8-ae28-d0859b221ba1</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>aceba4d9-2606-4ba5-af15-1a3ae64f2e28</t>
+          <t>f45b78dc-4dba-4083-9fd3-fce8249a9282</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>65286f77-106a-41fe-a894-a270273a5d9e</t>
+          <t>c60c6bec-9dd1-4184-a01e-044086f3161f</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>bdcda2aa-66f3-4591-b5a2-109a52500cd7</t>
+          <t>8046255e-19a0-445e-92e4-9d660e63e3cc</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1205cecb-5002-4e21-a21f-9ae888c299b3</t>
+          <t>77f7644a-b4c3-4476-be47-3f29c783d95b</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>873214f3-7eb2-4b60-9878-dbdb170c5755</t>
+          <t>21166d7e-e892-4106-a6e1-48560fe8a9c1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>87883ca0-4b56-438d-8781-efeff273c75e</t>
+          <t>1caee00d-803e-4582-ad18-12540c7270f0</t>
         </is>
       </c>
     </row>
@@ -3438,12 +3438,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>af052553-1f08-4eb1-ad9a-95246132a17c</t>
+          <t>a15e4615-feb9-4dba-8738-a249a62aed99</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5d6b62e2-46c8-4980-baf2-329952e7110f</t>
+          <t>1aeff66e-5099-4b0e-9d30-c7d7d5331a0f</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>563dad4f-58c0-471f-b291-89c213c26767</t>
+          <t>637b6d15-8325-484b-b469-7fb7cea35c82</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>e14787c2-bcaa-46f1-a20e-3a650a819249</t>
+          <t>95de91a8-9180-4daf-997d-cbaa3985ff25</t>
         </is>
       </c>
     </row>
@@ -3472,12 +3472,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>09f1aa40-4a1c-460f-ab5e-f28f313c3de7</t>
+          <t>9afe3a43-cfb0-4da9-8294-01296167b744</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>d8a7fb5c-e851-4d8f-be30-261942e8d1b1</t>
+          <t>34f6d639-3b0d-4480-9a86-8ca27789c905</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3071c590-d19a-45e2-a315-b7a57dd5ef7d</t>
+          <t>13b1de24-250b-4a22-b485-d7b6f2a68542</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>14ac8a52-250a-44a0-886d-5e14429e9f90</t>
+          <t>afac14c4-697e-4551-9b3b-f12649d5911e</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ad0c4c43-1654-4b86-a330-8e0e5b9c78db</t>
+          <t>9e5da1d6-c802-4ee6-8886-df6add8d0c65</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>8b1dce17-39ef-4023-a2ba-572cfadbe677</t>
+          <t>1d1ba3bf-1262-4468-91c9-bf8ac2dc831f</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>b8b969e7-b7a1-4f74-bed1-c27224b53201</t>
+          <t>c9488e02-db66-4ead-9947-f382f5d76a47</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>f0d87c00-ca46-4a92-819b-98d16bd218df</t>
+          <t>82da79fd-0a5e-4369-b038-aafcca7fff94</t>
         </is>
       </c>
     </row>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>837c60f5-9dd1-4d50-981e-4055ac133fd1</t>
+          <t>34dfdd87-e273-4993-9db9-e04b31e621ef</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>bb9d8cfe-c475-4779-a5ca-d280fdc33caf</t>
+          <t>1fe88084-7fa1-45f0-b9cd-2e5f77436592</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>5a31784b-8176-4eaf-81b3-039a33ed4ffc</t>
+          <t>ffa93632-88f0-4bf7-962e-dbf7c4ab7618</t>
         </is>
       </c>
     </row>
@@ -3574,12 +3574,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>bb9d8cfe-c475-4779-a5ca-d280fdc33caf</t>
+          <t>1fe88084-7fa1-45f0-b9cd-2e5f77436592</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>69712d5a-f778-4517-8293-24ada7a09b10</t>
+          <t>81f61246-6ed5-4eee-b940-bf12e3a0bb16</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>bb9d8cfe-c475-4779-a5ca-d280fdc33caf</t>
+          <t>1fe88084-7fa1-45f0-b9cd-2e5f77436592</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1ee9d839-12b1-4f66-9266-539157edd9fd</t>
+          <t>e8d54ee0-6f11-4c25-8e2b-36b722017dfa</t>
         </is>
       </c>
     </row>
@@ -3608,12 +3608,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>bb9d8cfe-c475-4779-a5ca-d280fdc33caf</t>
+          <t>1fe88084-7fa1-45f0-b9cd-2e5f77436592</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>bb9d8cfe-c475-4779-a5ca-d280fdc33caf</t>
+          <t>1fe88084-7fa1-45f0-b9cd-2e5f77436592</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>569e25d6-a1ef-4a22-8eb2-707ee355409a</t>
+          <t>e7da2fe9-ee25-45e0-ba44-3870fac269a5</t>
         </is>
       </c>
     </row>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>938d098a-35e6-4fb2-983c-c40a63703fd8</t>
+          <t>191230ed-1d2d-47ed-b802-211efeeff66f</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12d6ad2c-ee42-438c-b3fb-5133a2b2134b</t>
+          <t>7b4f5dc3-c59f-4aa2-8fc7-899c9967e38b</t>
         </is>
       </c>
     </row>
@@ -3659,12 +3659,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>a3e4f86c-4e30-401d-9afc-42150bcc9243</t>
+          <t>95c811d0-4a0d-4dcb-afca-6efdbc9f2cac</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>fac80af2-e995-4c79-ac98-3557cd12fb96</t>
+          <t>1e4a85b3-36a0-4b31-8eb5-9d4581d37d3d</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>976d88e6-4ead-48b8-b2ca-d2c2861c42f5</t>
+          <t>c0f661de-166c-4714-bfb2-c85737eb1e08</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>28420c01-f033-4521-807f-a53691f10972</t>
+          <t>c99e58b7-1350-44b0-a888-3266467c17fc</t>
         </is>
       </c>
     </row>
@@ -3693,12 +3693,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>514eef97-5438-4a48-8820-dd6d8314df5e</t>
+          <t>7f83095e-0e08-4226-bba7-76ab8504a0ae</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>9b0f1272-444b-4a0f-8d4c-41454e510e21</t>
+          <t>a6e26533-195f-44ba-b9e6-694bf93ccb5b</t>
         </is>
       </c>
     </row>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>845ae6a3-47cb-4358-90c2-662d264f2686</t>
+          <t>4b47c76d-3fb7-43c6-9336-64890aa0d197</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>5a3d7be6-615f-4c70-a4a8-ebbd695b9dec</t>
+          <t>7243c696-0b30-4ac8-9e24-ad960a6a6501</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>e9f46b74-f483-4e1e-9e8f-dfdda03288c7</t>
+          <t>012ce27d-896f-46ed-9e49-32a579d428b5</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>e9ab7688-fd8f-46e4-9bc0-df9892d81014</t>
+          <t>9471cb1a-5ecc-4295-a419-72f1f376077c</t>
         </is>
       </c>
     </row>
@@ -3744,12 +3744,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>e2583a16-b062-4cd1-8244-4e3ceb736cca</t>
+          <t>70e2fb22-b627-4357-9103-a8639d19fa95</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>92bb5606-65b0-4a8c-8024-444cbd9414f3</t>
+          <t>56694946-905f-470c-92ea-3e5cca5c8749</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>a44a356c-76c8-4602-9041-4c7cb62bb382</t>
+          <t>542ef1fc-6954-4a30-a3b7-c306e7cc6040</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>976f98c7-219b-4418-b43c-c83a647f59ad</t>
+          <t>00270c55-79b0-4e87-a3fc-99df43dacf4e</t>
         </is>
       </c>
     </row>
@@ -3778,12 +3778,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>03b0b834-eb49-43c9-a893-c9e6067bae03</t>
+          <t>976ae577-81c9-4e01-93ec-435c94d0e2b7</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>98b9ccfc-a3a6-4a03-9aa4-2597c813cfe3</t>
+          <t>75732889-a8f8-47de-b953-53dd3ca5712f</t>
         </is>
       </c>
     </row>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>9a128b3c-50c9-4839-9698-cd83722985e8</t>
+          <t>04d04496-79a7-4ec3-a4c7-5e83cb8c6bbd</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>57a9782b-413c-44ab-929a-e7fe24857508</t>
+          <t>4af8f1df-63b0-4453-8157-188dc973f7ef</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>393e28cd-23df-4d55-b28a-07de2b226477</t>
+          <t>988926e8-abd4-47ae-9ea4-1e9c7f1401c4</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>b48002c1-e00c-49c9-a342-d4ba89efed62</t>
+          <t>3a24ba49-3b74-4ad9-bf99-d7fe3982e612</t>
         </is>
       </c>
     </row>
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>d70192bf-31d0-41b7-a2f7-98673d9a9a41</t>
+          <t>6d743f00-836c-4491-a74e-bed0738dcdc9</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>90a69469-e1e2-4de6-a3ce-3e2486df783f</t>
+          <t>bf84e849-2d9d-4d88-b412-6e98993d597f</t>
         </is>
       </c>
     </row>
@@ -3846,12 +3846,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>95aa988e-6dae-4425-a0e2-aeac0a5034ea</t>
+          <t>72f967d9-82e9-4e18-849a-c8355110fcd3</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>c021a41b-16af-4f6a-b453-1fac705be357</t>
+          <t>5f6ccce3-aa10-4c5f-860b-7a544ca5dbcc</t>
         </is>
       </c>
     </row>
@@ -3863,12 +3863,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>f23347e5-69f1-4f7d-a43e-e3d3fda8062e</t>
+          <t>4c1646f3-0ddb-46de-9acb-7a6ba1833b0d</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>61159649-e281-4f8a-9ab1-415323941256</t>
+          <t>e91826f7-4f28-4743-86df-d79b4c70d7f0</t>
         </is>
       </c>
     </row>
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>541d33ca-b5b4-4501-b700-d5168174da7d</t>
+          <t>d536b822-1382-4806-ac50-1d7aa4d240d6</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>145c200f-2d63-4188-92fe-67ee954e7a5b</t>
+          <t>313439f3-8960-4a4c-97f7-66c1908f5aca</t>
         </is>
       </c>
     </row>
@@ -3897,12 +3897,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>c5bd6303-4414-43a7-b895-1fe6edc530b3</t>
+          <t>97d862fc-4869-48bb-abb2-40b9765db574</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>f391dd5c-66f9-428b-92fa-5042ee2fd7a5</t>
+          <t>f73de678-9350-480f-bbe7-69073c2a99ef</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2f2187b7-1c60-4c69-9877-187513b9d1e3</t>
+          <t>8fd09f81-3eff-4c4e-a4b6-c02879a80b0b</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>f1341286-0c26-4dd4-8cda-36c708cb463a</t>
+          <t>0f9812ea-8fd0-4273-a638-9b6f1e4a4336</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7485dfd9-4c2a-40d4-a9d8-fcaf6d36721b</t>
+          <t>aa6f15ed-b2bb-41cf-9258-762f4e2ace87</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>960c3575-0aba-44cb-89f5-e7f31e6ba95a</t>
+          <t>57d06763-41bd-4a8b-93bb-215e22915bf0</t>
         </is>
       </c>
     </row>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>abf084fc-eca2-48cf-88b0-12d105fc0bc1</t>
+          <t>6a059539-7691-4eb2-93d7-71cd6ae5fdc7</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>08eeabe6-8f9e-4efa-84f2-146b29335056</t>
+          <t>2039d88c-70e7-4c10-ae58-3eac5e965839</t>
         </is>
       </c>
     </row>
@@ -3965,12 +3965,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>5cb430c4-d6e0-4f2f-b182-d5c9a83ece68</t>
+          <t>7f0cbce7-c30e-4618-9bc4-9105275103b8</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>9eb6399b-fd05-457e-a8a9-bbc40802cd1b</t>
+          <t>274a41e5-1db1-427f-9604-a8e17aca0312</t>
         </is>
       </c>
     </row>
@@ -3982,12 +3982,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>a002a469-26e4-45ae-8818-afcbbc0139ab</t>
+          <t>32727927-0e16-4f86-ae6c-926c4ee6b997</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>95a06d3f-c614-46c3-af52-2f7397012a4b</t>
+          <t>1ceecb9b-4f88-40f2-be5c-c7d28a28a534</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>a002a469-26e4-45ae-8818-afcbbc0139ab</t>
+          <t>32727927-0e16-4f86-ae6c-926c4ee6b997</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>559d21fc-d448-4b1f-974b-98f131fa41dc</t>
+          <t>90c17b2e-e3f7-4a1f-81ec-ddd4174c8904</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4016,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>80259acd-20b6-4389-b722-2ec93a51bc64</t>
+          <t>31b57bc7-ab7b-4c2c-8aee-81351dd0c509</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>efb09b92-a77b-4531-9ff6-8dc9b74c91ef</t>
+          <t>28b292ae-88ff-4c40-b8b9-1b8faf15b3ac</t>
         </is>
       </c>
     </row>
@@ -4050,12 +4050,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0c60d524-88cb-4094-b65f-dace4852fc3b</t>
+          <t>bc7842cc-27bd-49b2-bf4d-e26ae4fba3ed</t>
         </is>
       </c>
     </row>
@@ -4067,12 +4067,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2eaec09d-4639-4538-bcb8-e2d59ebaeeaa</t>
+          <t>2af75daa-ed81-49bd-ab97-77adb0975c5d</t>
         </is>
       </c>
     </row>
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2fd6ed37-0c5e-45e3-9de8-50f25469426e</t>
+          <t>c05a1736-1fcd-4958-9fc3-8510497162ba</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>022b3fee-497e-438f-b19c-10a1e7ef37b7</t>
+          <t>2d6494e7-6844-4f22-8e5c-2cb9c9370c44</t>
         </is>
       </c>
     </row>
@@ -4118,12 +4118,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>c867adde-3133-4037-a6d0-b2a9b9f46588</t>
+          <t>848654bb-ff1b-4ef7-91c7-cffb061e4dbd</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4135,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4c5ca611-b016-4bd0-af2d-0c03bd33aaf9</t>
+          <t>64e8f30d-e427-4bb6-8815-27335ad1d547</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>799083f9-dee9-4fd6-b637-f5a86b53a2a6</t>
+          <t>e4bcc79e-e544-45dd-a98c-abd4aa5e841b</t>
         </is>
       </c>
     </row>
@@ -4152,12 +4152,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4c5ca611-b016-4bd0-af2d-0c03bd33aaf9</t>
+          <t>64e8f30d-e427-4bb6-8815-27335ad1d547</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>45a5804b-39bb-415b-b9f9-379aaa451839</t>
+          <t>705df002-dff8-4d04-89af-f8374a0fd4ae</t>
         </is>
       </c>
     </row>
@@ -4169,80 +4169,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4c5ca611-b016-4bd0-af2d-0c03bd33aaf9</t>
+          <t>64e8f30d-e427-4bb6-8815-27335ad1d547</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>785abae6-df32-4753-ba3c-2f3035e166bc</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Группа работ 1</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>77dba80d-65f8-4fc2-b529-7b83c0d694d1</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>c4d28e5a-644c-4c51-bd75-dbf3dbabac5f</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Группа работ 2</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>77dba80d-65f8-4fc2-b529-7b83c0d694d1</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>72673b80-a35a-4728-aaf2-c72cab4884e5</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Группа работ 3</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>d02fa738-7d0e-4336-a2e9-a1da0c7a6f38</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>6a19c7e0-bdf8-4cc3-aaf8-f72417a3912b</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Группа работ 4</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>d02fa738-7d0e-4336-a2e9-a1da0c7a6f38</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>a08c6bce-aeed-4e06-82b5-7a7fbcfb6866</t>
+          <t>b855e090-4175-46e8-a6ad-783e4c2aed82</t>
         </is>
       </c>
     </row>
